--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -31,38 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Self assesment</t>
   </si>
   <si>
-    <t>Peer assessment 1</t>
-  </si>
-  <si>
     <t>Peer assessment 9</t>
   </si>
   <si>
-    <t>Peer assessment 8</t>
-  </si>
-  <si>
-    <t>Peer assessment 7</t>
-  </si>
-  <si>
-    <t>Peer assessment 2</t>
-  </si>
-  <si>
-    <t>Peer assessment 3</t>
-  </si>
-  <si>
-    <t>Peer assessment 4</t>
-  </si>
-  <si>
-    <t>Peer assessment 5</t>
-  </si>
-  <si>
-    <t>Peer assessment 6</t>
-  </si>
-  <si>
     <t>Insufficient</t>
   </si>
   <si>
@@ -84,33 +60,9 @@
     <t>Criterion 1 Online collaboration</t>
   </si>
   <si>
-    <t>Criterion 2 Online colaboration</t>
-  </si>
-  <si>
-    <t>Criterion 3 Online collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 4 Online collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 5 Online collaboration</t>
-  </si>
-  <si>
     <t>Criterion 1 International Collaboration</t>
   </si>
   <si>
-    <t>Criterion 2 International Collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 3 International Collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 4 International Collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 5 International Collaboration</t>
-  </si>
-  <si>
     <t>Final reflection</t>
   </si>
   <si>
@@ -127,6 +79,30 @@
   </si>
   <si>
     <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter </t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Leading group meetings, creating Plan of Action</t>
+  </si>
+  <si>
+    <t>Active collaborator, motivated</t>
   </si>
 </sst>
 </file>
@@ -578,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,13 +570,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,76 +588,80 @@
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,63 +673,67 @@
     </row>
     <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
@@ -757,696 +741,40 @@
     <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23 C26:C35 C38:C47 C50:C59 C62:C71 C74:C83 C86:C95 C98:C107 C110:C119"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1457,7 +785,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B11 B14:B23 B26:B35 B38:B47 B50:B59 B62:B71 B74:B83 B86:B95 B98:B107 B110:B119</xm:sqref>
+          <xm:sqref>B2:B11 B14:B23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1480,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1491,7 +819,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1502,7 +830,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1513,7 +841,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1524,7 +852,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Self assesment</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Active collaborator, motivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leading group meetings, using git to upload and good at sharing </t>
+  </si>
+  <si>
+    <t>Good at communicating, active using Jens</t>
   </si>
 </sst>
 </file>
@@ -556,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,8 +628,12 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -707,8 +717,12 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">

--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Self assesment</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Good at communicating, active using Jens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very motivated. Asking everyone where we are in the project, and what needs to be done. </t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -646,8 +649,12 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">

--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piiit\Documents\Honeyjar\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D80C9-6D0A-4B4B-A339-AAD626B12C6D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Self assesment</t>
   </si>
@@ -112,12 +113,15 @@
   </si>
   <si>
     <t xml:space="preserve">Very motivated. Asking everyone where we are in the project, and what needs to be done. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good at making sure everyone is on board. Very active and good explanations. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -291,10 +295,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Grade" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,22 +566,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="64.75" customWidth="1"/>
+    <col min="1" max="1" width="40.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="64.69921875" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -588,35 +592,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -627,7 +631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -638,14 +642,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -656,21 +660,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -681,35 +685,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -720,7 +724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -731,57 +735,61 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -795,14 +803,14 @@
     <mergeCell ref="B28:C28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -815,19 +823,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,7 +846,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -849,7 +857,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -860,7 +868,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,7 +879,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,7 +890,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -891,7 +899,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -900,7 +908,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -909,7 +917,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -918,7 +926,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -927,7 +935,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -936,7 +944,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -945,7 +953,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -954,7 +962,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -963,7 +971,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -972,7 +980,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -981,7 +989,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -990,7 +998,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -999,7 +1007,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1008,7 +1016,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1017,7 +1025,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1026,7 +1034,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1035,7 +1043,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piiit\Documents\Honeyjar\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D80C9-6D0A-4B4B-A339-AAD626B12C6D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Self assesment</t>
   </si>
@@ -116,12 +115,15 @@
   </si>
   <si>
     <t xml:space="preserve">Good at making sure everyone is on board. Very active and good explanations. </t>
+  </si>
+  <si>
+    <t>Leading group meetings, fast response times and very active on discord.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -295,10 +297,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grade" dataDxfId="0"/>
+    <tableColumn id="1" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,22 +568,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.09765625" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="64.69921875" customWidth="1"/>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="64.75" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -592,35 +594,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -631,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -642,14 +644,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -660,21 +666,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -685,35 +691,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -724,7 +730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -735,14 +741,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -753,43 +763,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -803,14 +813,14 @@
     <mergeCell ref="B28:C28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -823,19 +833,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,7 +856,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -857,7 +867,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -868,7 +878,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -879,7 +889,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,7 +900,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -899,7 +909,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -908,7 +918,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -917,7 +927,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -926,7 +936,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -935,7 +945,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -944,7 +954,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -953,7 +963,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -962,7 +972,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -971,7 +981,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -980,7 +990,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -989,7 +999,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -998,7 +1008,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1007,7 +1017,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1016,7 +1026,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1025,7 +1035,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1034,7 +1044,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1043,7 +1053,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="150000" iterateDelta="1E-4"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Self assesment</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Leading group meetings, fast response times and very active on discord.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Active at Discord meetings, Good job working on the PoA and sharing
+knowledge with other project group members in a scienfiic and respectful
+manner.
+2)Quick responsetime on Discord and been doing a good job of managing the weekly discord meetings.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Actively using both Discord and GitHub in an organized way. 
+2) Great job at sharing knowledge from research and keeping all 
+group members updated by uploading each version of the PoA to GitHub
+and explaining changes over Discord </t>
   </si>
 </sst>
 </file>
@@ -571,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,8 +617,12 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -702,8 +718,12 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">

--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morcel\Documents\GitHub\Honeyjar\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,6 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Self assesment</t>
   </si>
@@ -131,11 +128,26 @@
 group members updated by uploading each version of the PoA to GitHub
 and explaining changes over Discord </t>
   </si>
+  <si>
+    <t xml:space="preserve">I'm involved in the project and try to oversee and facilitate anything that might be necessary for the team. </t>
+  </si>
+  <si>
+    <t>I try to keep everyone posted about anything that is happening in the project. So far im happy with how i'm doing but to improve i would need to be more on top of things even if i don't fully understand what's going on.</t>
+  </si>
+  <si>
+    <t>Since Riga we havent been in contact with Anna. This has put a lot of work load on Ahmet that we now have to divide over the danish group as well. But they also have to do their part. So finding a middle ground in this is challanging. Another thing that i find a little challanging is the fact that me and Alex are both used to a methodoly that are complete opposites and i find it hard to let go of my way of working.</t>
+  </si>
+  <si>
+    <t>The overall collaboration is going very well. Everyone tries to be involved and give useful input. So far i'm happy with the results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm going to listen more to what Alex has to say whenever he thinks of something different. Also i have to work on explaining my own decisions since we are both used to a different methodolgy. Last but not least i'm going to be more active within the team to help people and set up meetings where needed. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -583,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,8 +622,12 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -711,8 +727,12 @@
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -809,21 +829,27 @@
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C28" s="9"/>
     </row>
   </sheetData>

--- a/files/assesments/firstround/assesments-morcel.xlsx
+++ b/files/assesments/firstround/assesments-morcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morcel\Documents\GitHub\Honeyjar\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Self assesment</t>
   </si>
@@ -143,11 +143,17 @@
   <si>
     <t xml:space="preserve">I'm going to listen more to what Alex has to say whenever he thinks of something different. Also i have to work on explaining my own decisions since we are both used to a different methodolgy. Last but not least i'm going to be more active within the team to help people and set up meetings where needed. </t>
   </si>
+  <si>
+    <t>Discord active, participated in meetings, meeting leader</t>
+  </si>
+  <si>
+    <t>Good on time for meetings and quick to talk his mind if asked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -595,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,8 +708,12 @@
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -807,8 +817,12 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -859,7 +873,7 @@
     <mergeCell ref="B28:C28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C14:C23 C2:C11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
